--- a/Code/Results/Cases/Case_3_221/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_221/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.49754702252281</v>
+        <v>12.39185424165248</v>
       </c>
       <c r="C2">
-        <v>13.35436559251271</v>
+        <v>7.686111888090331</v>
       </c>
       <c r="D2">
-        <v>7.381103974690502</v>
+        <v>10.72449922999026</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.46316069090339</v>
+        <v>30.62284562759701</v>
       </c>
       <c r="G2">
-        <v>2.072193725921334</v>
+        <v>3.631325844477329</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.27222328912426</v>
+        <v>20.07958466336632</v>
       </c>
       <c r="J2">
-        <v>6.532902345606888</v>
+        <v>11.07894246573618</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.09446088993354</v>
+        <v>17.23771168851673</v>
       </c>
       <c r="N2">
-        <v>11.70521931254184</v>
+        <v>17.34590629550259</v>
       </c>
       <c r="O2">
-        <v>15.21335277913544</v>
+        <v>22.18463177278219</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.28359627220276</v>
+        <v>11.89855794563825</v>
       </c>
       <c r="C3">
-        <v>12.49569610100122</v>
+        <v>7.254239078304299</v>
       </c>
       <c r="D3">
-        <v>7.167871653907598</v>
+        <v>10.71056548528108</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.89168237357134</v>
+        <v>30.63581898255675</v>
       </c>
       <c r="G3">
-        <v>2.077454903257304</v>
+        <v>3.633359456668868</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.38219234289124</v>
+        <v>20.17228674823479</v>
       </c>
       <c r="J3">
-        <v>6.531615869384338</v>
+        <v>11.10574437791838</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.31074839400875</v>
+        <v>17.08556223724025</v>
       </c>
       <c r="N3">
-        <v>11.84975591313735</v>
+        <v>17.39539446391844</v>
       </c>
       <c r="O3">
-        <v>14.97354605299654</v>
+        <v>22.22826816596688</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.49419223154923</v>
+        <v>11.58628021379759</v>
       </c>
       <c r="C4">
-        <v>11.93811365973136</v>
+        <v>6.975710198148732</v>
       </c>
       <c r="D4">
-        <v>7.037135336594429</v>
+        <v>10.70366493595778</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.55502387317205</v>
+        <v>30.65203871426676</v>
       </c>
       <c r="G4">
-        <v>2.080787527522431</v>
+        <v>3.634675013304309</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.46221340502652</v>
+        <v>20.23364171717723</v>
       </c>
       <c r="J4">
-        <v>6.534524925177099</v>
+        <v>11.12376066836671</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.81237572394968</v>
+        <v>16.99425626692976</v>
       </c>
       <c r="N4">
-        <v>11.94183100714889</v>
+        <v>17.42753438375512</v>
       </c>
       <c r="O4">
-        <v>14.83973688309792</v>
+        <v>22.260679529988</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.16138964085094</v>
+        <v>11.45685013710231</v>
       </c>
       <c r="C5">
-        <v>11.70324723469776</v>
+        <v>6.858940037595769</v>
       </c>
       <c r="D5">
-        <v>6.983978549486455</v>
+        <v>10.7012713753404</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.42152342051612</v>
+        <v>30.66072179557056</v>
       </c>
       <c r="G5">
-        <v>2.082171904641819</v>
+        <v>3.635227991699058</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.49780715987235</v>
+        <v>20.25975771534744</v>
       </c>
       <c r="J5">
-        <v>6.536613019422656</v>
+        <v>11.13149467258511</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.6051935037792</v>
+        <v>16.9576144698933</v>
       </c>
       <c r="N5">
-        <v>11.98018544809014</v>
+        <v>17.4410736296537</v>
       </c>
       <c r="O5">
-        <v>14.78854544710964</v>
+        <v>22.27529648191869</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.1054556642624</v>
+        <v>11.43523294765226</v>
       </c>
       <c r="C6">
-        <v>11.66378574001583</v>
+        <v>6.839356151149289</v>
       </c>
       <c r="D6">
-        <v>6.975161274660493</v>
+        <v>10.70089926477046</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.39958173693394</v>
+        <v>30.66228875677062</v>
       </c>
       <c r="G6">
-        <v>2.082403385166554</v>
+        <v>3.635320834317437</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.5038932295175</v>
+        <v>20.26416144272277</v>
       </c>
       <c r="J6">
-        <v>6.53701346043982</v>
+        <v>11.13280258680993</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.57055139676528</v>
+        <v>16.95156530678636</v>
       </c>
       <c r="N6">
-        <v>11.98660439263109</v>
+        <v>17.44334853202478</v>
       </c>
       <c r="O6">
-        <v>14.78024525378643</v>
+        <v>22.27780860125097</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.48974899075629</v>
+        <v>11.58454321494165</v>
       </c>
       <c r="C7">
-        <v>11.93497714408404</v>
+        <v>6.974148489609481</v>
       </c>
       <c r="D7">
-        <v>7.036417865118446</v>
+        <v>10.70363095827207</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.5532083559282</v>
+        <v>30.65214742595188</v>
       </c>
       <c r="G7">
-        <v>2.080806090434556</v>
+        <v>3.634682402553777</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.46268155512808</v>
+        <v>20.23398942138519</v>
       </c>
       <c r="J7">
-        <v>6.534549467478255</v>
+        <v>11.1238633837875</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.80959782756647</v>
+        <v>16.99375976586759</v>
       </c>
       <c r="N7">
-        <v>11.94234489992006</v>
+        <v>17.42771518803348</v>
       </c>
       <c r="O7">
-        <v>14.83903304952483</v>
+        <v>22.2608709593887</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.08808915415385</v>
+        <v>12.22382064258246</v>
       </c>
       <c r="C8">
-        <v>13.06458587161764</v>
+        <v>7.54002360998839</v>
       </c>
       <c r="D8">
-        <v>7.307584108924235</v>
+        <v>10.71935289558261</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.26323119423654</v>
+        <v>30.62560479282609</v>
       </c>
       <c r="G8">
-        <v>2.073986927777072</v>
+        <v>3.632013178745095</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.30744879864107</v>
+        <v>20.11062654811917</v>
       </c>
       <c r="J8">
-        <v>6.531674470591341</v>
+        <v>11.08786002606831</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.82792341110486</v>
+        <v>17.18483266697161</v>
       </c>
       <c r="N8">
-        <v>11.75436186009001</v>
+        <v>17.362606324505</v>
       </c>
       <c r="O8">
-        <v>15.12785833676488</v>
+        <v>22.19850936964129</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.87520377331245</v>
+        <v>13.39576486480181</v>
       </c>
       <c r="C9">
-        <v>15.03991710298389</v>
+        <v>8.540573650021331</v>
       </c>
       <c r="D9">
-        <v>7.837900684745734</v>
+        <v>10.76320132135263</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.76326604612314</v>
+        <v>30.63909025749027</v>
       </c>
       <c r="G9">
-        <v>2.061397319046166</v>
+        <v>3.627307318243621</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.10965729683707</v>
+        <v>19.90399574661406</v>
       </c>
       <c r="J9">
-        <v>6.556623606585064</v>
+        <v>11.02963414415571</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.68070656978536</v>
+        <v>17.57474788715921</v>
       </c>
       <c r="N9">
-        <v>11.41237523272182</v>
+        <v>17.24880385492018</v>
       </c>
       <c r="O9">
-        <v>15.80210266244042</v>
+        <v>22.12094791641611</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.71455191080056</v>
+        <v>14.1987992094134</v>
       </c>
       <c r="C10">
-        <v>16.34689464939247</v>
+        <v>9.205924061828483</v>
       </c>
       <c r="D10">
-        <v>8.22307019259428</v>
+        <v>10.80318833486972</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.92395435567735</v>
+        <v>30.68893289139587</v>
       </c>
       <c r="G10">
-        <v>2.052582870041392</v>
+        <v>3.624168703962647</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.03999265113479</v>
+        <v>19.7738170615515</v>
       </c>
       <c r="J10">
-        <v>6.595306415859406</v>
+        <v>10.99440081529994</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.16720389335963</v>
+        <v>17.868369367455</v>
       </c>
       <c r="N10">
-        <v>11.17777839739289</v>
+        <v>17.17359513058876</v>
       </c>
       <c r="O10">
-        <v>16.36431188021302</v>
+        <v>22.09140944890998</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.5068782103319</v>
+        <v>14.5501515765068</v>
       </c>
       <c r="C11">
-        <v>16.91066001018301</v>
+        <v>9.493006063921792</v>
       </c>
       <c r="D11">
-        <v>8.396684308918054</v>
+        <v>10.82302695562068</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.46331116640652</v>
+        <v>30.72024772556085</v>
       </c>
       <c r="G11">
-        <v>2.048657515080198</v>
+        <v>3.622809365775435</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.0271335667711</v>
+        <v>19.71931987698845</v>
       </c>
       <c r="J11">
-        <v>6.617692372738106</v>
+        <v>10.98001048362731</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.81246883346369</v>
+        <v>18.00303685243608</v>
       </c>
       <c r="N11">
-        <v>11.07479809207184</v>
+        <v>17.14119330226017</v>
       </c>
       <c r="O11">
-        <v>16.63466982162969</v>
+        <v>22.08395900547281</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.80059532526271</v>
+        <v>14.68109931072249</v>
       </c>
       <c r="C12">
-        <v>17.11976396865076</v>
+        <v>9.599447566299235</v>
       </c>
       <c r="D12">
-        <v>8.462151736435592</v>
+        <v>10.83077254266322</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.66908024947508</v>
+        <v>30.73334341789369</v>
       </c>
       <c r="G12">
-        <v>2.047182346926617</v>
+        <v>3.622304405662317</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.02517632063083</v>
+        <v>19.69936456297205</v>
       </c>
       <c r="J12">
-        <v>6.626888412888821</v>
+        <v>10.97479668571287</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.05186500074739</v>
+        <v>18.05415083883964</v>
       </c>
       <c r="N12">
-        <v>11.03635362991901</v>
+        <v>17.12918314093406</v>
       </c>
       <c r="O12">
-        <v>16.73914654681123</v>
+        <v>22.0819999461647</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.73761807762948</v>
+        <v>14.65299222696838</v>
       </c>
       <c r="C13">
-        <v>17.07492380407744</v>
+        <v>9.576624835735329</v>
       </c>
       <c r="D13">
-        <v>8.448065117976054</v>
+        <v>10.82909408783668</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.62469784425224</v>
+        <v>30.73046808738226</v>
       </c>
       <c r="G13">
-        <v>2.047499563413691</v>
+        <v>3.622412723140592</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.02546504377196</v>
+        <v>19.70363194139174</v>
       </c>
       <c r="J13">
-        <v>6.62487541955739</v>
+        <v>10.9759090956142</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.00052591394122</v>
+        <v>18.04313789147123</v>
       </c>
       <c r="N13">
-        <v>11.04460852964728</v>
+        <v>17.13175820458282</v>
       </c>
       <c r="O13">
-        <v>16.716552356367</v>
+        <v>22.08238349946012</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.53116876206254</v>
+        <v>14.56096734689405</v>
       </c>
       <c r="C14">
-        <v>16.92795066143204</v>
+        <v>9.501808708360853</v>
       </c>
       <c r="D14">
-        <v>8.402076136276335</v>
+        <v>10.82365954056822</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.48020987843335</v>
+        <v>30.72130035027147</v>
       </c>
       <c r="G14">
-        <v>2.048535931177012</v>
+        <v>3.622767626440356</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.02691299735462</v>
+        <v>19.7176644662704</v>
       </c>
       <c r="J14">
-        <v>6.618434352843007</v>
+        <v>10.9795768212234</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.83226295667461</v>
+        <v>18.00723988493356</v>
       </c>
       <c r="N14">
-        <v>11.07162409021158</v>
+        <v>17.14020001812498</v>
       </c>
       <c r="O14">
-        <v>16.64322315568982</v>
+        <v>22.08378054561623</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.40389159154557</v>
+        <v>14.5043231356106</v>
       </c>
       <c r="C15">
-        <v>16.83735614875266</v>
+        <v>9.455685289902057</v>
       </c>
       <c r="D15">
-        <v>8.373869290762041</v>
+        <v>10.82036096446129</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.39190270009104</v>
+        <v>30.71584582174886</v>
       </c>
       <c r="G15">
-        <v>2.049172178780394</v>
+        <v>3.622986288691813</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.02818528055288</v>
+        <v>19.72634863340659</v>
       </c>
       <c r="J15">
-        <v>6.614583547833723</v>
+        <v>10.98185408012197</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.72855416015947</v>
+        <v>17.9852655602998</v>
       </c>
       <c r="N15">
-        <v>11.08824424853454</v>
+        <v>17.14540467355898</v>
       </c>
       <c r="O15">
-        <v>16.59858003241216</v>
+        <v>22.08474859979499</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.66188353624144</v>
+        <v>14.17554827591897</v>
       </c>
       <c r="C16">
-        <v>16.30943553728586</v>
+        <v>9.186846287189624</v>
       </c>
       <c r="D16">
-        <v>8.211687783310364</v>
+        <v>10.80192467532832</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.88892517677893</v>
+        <v>30.68705986789979</v>
       </c>
       <c r="G16">
-        <v>2.052841027382368</v>
+        <v>3.624258912776105</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.04122934832293</v>
+        <v>19.7774738165643</v>
       </c>
       <c r="J16">
-        <v>6.593942393282106</v>
+        <v>10.99537421148709</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.12433780161284</v>
+        <v>17.85958723726456</v>
       </c>
       <c r="N16">
-        <v>11.18458480370179</v>
+        <v>17.1757490468618</v>
       </c>
       <c r="O16">
-        <v>16.34693711505381</v>
+        <v>22.09201695204336</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.19535844002154</v>
+        <v>13.97020970757411</v>
       </c>
       <c r="C17">
-        <v>15.97771921711494</v>
+        <v>9.01790695990929</v>
       </c>
       <c r="D17">
-        <v>8.111749638814393</v>
+        <v>10.79103408929396</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.58319273421043</v>
+        <v>30.67161061235363</v>
       </c>
       <c r="G17">
-        <v>2.055112768670205</v>
+        <v>3.625057118928847</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.05419893732255</v>
+        <v>19.81004866007963</v>
       </c>
       <c r="J17">
-        <v>6.582527779421701</v>
+        <v>11.00408780691935</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.74478086733041</v>
+        <v>17.78274063621599</v>
       </c>
       <c r="N17">
-        <v>11.24465363031015</v>
+        <v>17.19482766386559</v>
       </c>
       <c r="O17">
-        <v>16.19630241129995</v>
+        <v>22.09801035832514</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.92284203926461</v>
+        <v>13.85079593913478</v>
       </c>
       <c r="C18">
-        <v>15.78402412465126</v>
+        <v>8.919271408724507</v>
       </c>
       <c r="D18">
-        <v>8.054119490967086</v>
+        <v>10.78492550906788</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.40841779158377</v>
+        <v>30.66353835387682</v>
       </c>
       <c r="G18">
-        <v>2.056427411122583</v>
+        <v>3.625522670147943</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.06341875810569</v>
+        <v>19.82922912473204</v>
       </c>
       <c r="J18">
-        <v>6.576411329391553</v>
+        <v>11.00925376307626</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.52318218140805</v>
+        <v>17.73864617623861</v>
       </c>
       <c r="N18">
-        <v>11.27955456011725</v>
+        <v>17.20597168053744</v>
       </c>
       <c r="O18">
-        <v>16.11103647676293</v>
+        <v>22.10202106182024</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.8298522167466</v>
+        <v>13.81014289898076</v>
       </c>
       <c r="C19">
-        <v>15.71794280340907</v>
+        <v>8.885624281964171</v>
       </c>
       <c r="D19">
-        <v>8.034582941932632</v>
+        <v>10.78288405311615</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.34942997484074</v>
+        <v>30.66094512116352</v>
       </c>
       <c r="G19">
-        <v>2.056873925089019</v>
+        <v>3.625681406076198</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.06683655464228</v>
+        <v>19.83579952642934</v>
       </c>
       <c r="J19">
-        <v>6.57441658926044</v>
+        <v>11.01102933698604</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.44758611017904</v>
+        <v>17.72373590478331</v>
       </c>
       <c r="N19">
-        <v>11.29143129337774</v>
+        <v>17.20977415882178</v>
       </c>
       <c r="O19">
-        <v>16.08240311640083</v>
+        <v>22.10347573993516</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.2454533479673</v>
+        <v>13.99220450438639</v>
       </c>
       <c r="C20">
-        <v>16.01333087756885</v>
+        <v>9.036042805671302</v>
       </c>
       <c r="D20">
-        <v>8.122403935518006</v>
+        <v>10.7921773552519</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.61562810735715</v>
+        <v>30.67317102525972</v>
       </c>
       <c r="G20">
-        <v>2.054870116292612</v>
+        <v>3.624971481931425</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.05263467419721</v>
+        <v>19.80653501264407</v>
       </c>
       <c r="J20">
-        <v>6.583696202733131</v>
+        <v>11.00314427795306</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.78552514395261</v>
+        <v>17.79091043798241</v>
       </c>
       <c r="N20">
-        <v>11.23822278589289</v>
+        <v>17.19277907153802</v>
       </c>
       <c r="O20">
-        <v>16.21219541915901</v>
+        <v>22.09731402277676</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.59197890497829</v>
+        <v>14.5880550202592</v>
       </c>
       <c r="C21">
-        <v>16.97123877414487</v>
+        <v>9.523845825500279</v>
       </c>
       <c r="D21">
-        <v>8.415592054694184</v>
+        <v>10.8252495039171</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.52260884524403</v>
+        <v>30.72395960095061</v>
       </c>
       <c r="G21">
-        <v>2.048231225853379</v>
+        <v>3.622663117379957</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.02640701913123</v>
+        <v>19.71352425460513</v>
       </c>
       <c r="J21">
-        <v>6.620306494944517</v>
+        <v>10.97849312943495</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.88181972076049</v>
+        <v>18.0177811020556</v>
       </c>
       <c r="N21">
-        <v>11.06367385890879</v>
+        <v>17.1377134100195</v>
       </c>
       <c r="O21">
-        <v>16.66470480550787</v>
+        <v>22.08334678961247</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.43520834869473</v>
+        <v>14.96519198449345</v>
       </c>
       <c r="C22">
-        <v>17.57177078930057</v>
+        <v>9.829411996220932</v>
       </c>
       <c r="D22">
-        <v>8.605579074052851</v>
+        <v>10.8482209645432</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.1242318411497</v>
+        <v>30.76436227025403</v>
       </c>
       <c r="G22">
-        <v>2.04395762741752</v>
+        <v>3.621211519161816</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.02633689271913</v>
+        <v>19.65671038343471</v>
       </c>
       <c r="J22">
-        <v>6.648438370053257</v>
+        <v>10.96375490924014</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.56948191371544</v>
+        <v>18.16672576822759</v>
       </c>
       <c r="N22">
-        <v>10.9528217417811</v>
+        <v>17.10323827845687</v>
       </c>
       <c r="O22">
-        <v>16.97267318138877</v>
+        <v>22.07924455246704</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.98850583407855</v>
+        <v>14.76505913967604</v>
       </c>
       <c r="C23">
-        <v>17.25357424364308</v>
+        <v>9.667544890203104</v>
       </c>
       <c r="D23">
-        <v>8.504342022134527</v>
+        <v>10.83583785471746</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.80235490382014</v>
+        <v>30.74214100586587</v>
       </c>
       <c r="G23">
-        <v>2.046232850496807</v>
+        <v>3.621981060277748</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.0247441223213</v>
+        <v>19.68666852447528</v>
       </c>
       <c r="J23">
-        <v>6.633029022291819</v>
+        <v>10.9714953607084</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.20507934270497</v>
+        <v>18.08718274363452</v>
       </c>
       <c r="N23">
-        <v>11.01168504324022</v>
+        <v>17.12150005256511</v>
       </c>
       <c r="O23">
-        <v>16.8071869145195</v>
+        <v>22.08097379302091</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.22281885381657</v>
+        <v>13.98226489132836</v>
       </c>
       <c r="C24">
-        <v>15.99724015296053</v>
+        <v>9.027848291165181</v>
       </c>
       <c r="D24">
-        <v>8.117587667545159</v>
+        <v>10.79166000920922</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.60096096858431</v>
+        <v>30.6724630399532</v>
       </c>
       <c r="G24">
-        <v>2.054979792618625</v>
+        <v>3.625010177693784</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.05333640030407</v>
+        <v>19.80812212252249</v>
       </c>
       <c r="J24">
-        <v>6.583166571769472</v>
+        <v>11.00357036024435</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.76711520906921</v>
+        <v>17.78721660071317</v>
       </c>
       <c r="N24">
-        <v>11.24112902994503</v>
+        <v>17.1937046934969</v>
       </c>
       <c r="O24">
-        <v>16.20500602889919</v>
+        <v>22.09762707618034</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.15806000075567</v>
+        <v>13.08838545350363</v>
       </c>
       <c r="C25">
-        <v>14.53103733034796</v>
+        <v>8.281961324599243</v>
       </c>
       <c r="D25">
-        <v>7.694980045143864</v>
+        <v>10.74996149751622</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.34667134232993</v>
+        <v>30.62842253273281</v>
       </c>
       <c r="G25">
-        <v>2.064723538170295</v>
+        <v>3.628524153107349</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.15067513213936</v>
+        <v>19.95610490546211</v>
       </c>
       <c r="J25">
-        <v>6.546423949758259</v>
+        <v>11.04406072692036</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.19587155704393</v>
+        <v>17.46785368604156</v>
       </c>
       <c r="N25">
-        <v>11.5020021322912</v>
+        <v>17.27811092245188</v>
       </c>
       <c r="O25">
-        <v>15.60800854223734</v>
+        <v>22.13712142376376</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_221/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_221/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.39185424165248</v>
+        <v>18.49754702252278</v>
       </c>
       <c r="C2">
-        <v>7.686111888090331</v>
+        <v>13.35436559251274</v>
       </c>
       <c r="D2">
-        <v>10.72449922999026</v>
+        <v>7.38110397469047</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.62284562759701</v>
+        <v>22.46316069090333</v>
       </c>
       <c r="G2">
-        <v>3.631325844477329</v>
+        <v>2.072193725921201</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.07958466336632</v>
+        <v>12.27222328912422</v>
       </c>
       <c r="J2">
-        <v>11.07894246573618</v>
+        <v>6.532902345606859</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.23771168851673</v>
+        <v>15.09446088993352</v>
       </c>
       <c r="N2">
-        <v>17.34590629550259</v>
+        <v>11.70521931254174</v>
       </c>
       <c r="O2">
-        <v>22.18463177278219</v>
+        <v>15.2133527791354</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.89855794563825</v>
+        <v>17.28359627220282</v>
       </c>
       <c r="C3">
-        <v>7.254239078304299</v>
+        <v>12.49569610100118</v>
       </c>
       <c r="D3">
-        <v>10.71056548528108</v>
+        <v>7.167871653907721</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.63581898255675</v>
+        <v>21.89168237357132</v>
       </c>
       <c r="G3">
-        <v>3.633359456668868</v>
+        <v>2.077454903257166</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.17228674823479</v>
+        <v>12.38219234289119</v>
       </c>
       <c r="J3">
-        <v>11.10574437791838</v>
+        <v>6.531615869384343</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.08556223724025</v>
+        <v>14.31074839400876</v>
       </c>
       <c r="N3">
-        <v>17.39539446391844</v>
+        <v>11.84975591313732</v>
       </c>
       <c r="O3">
-        <v>22.22826816596688</v>
+        <v>14.97354605299648</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.58628021379759</v>
+        <v>16.4941922315492</v>
       </c>
       <c r="C4">
-        <v>6.975710198148732</v>
+        <v>11.93811365973121</v>
       </c>
       <c r="D4">
-        <v>10.70366493595778</v>
+        <v>7.037135336594291</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.65203871426676</v>
+        <v>21.55502387317205</v>
       </c>
       <c r="G4">
-        <v>3.634675013304309</v>
+        <v>2.080787527522299</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.23364171717723</v>
+        <v>12.46221340502654</v>
       </c>
       <c r="J4">
-        <v>11.12376066836671</v>
+        <v>6.534524925177099</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.99425626692976</v>
+        <v>13.81237572394968</v>
       </c>
       <c r="N4">
-        <v>17.42753438375512</v>
+        <v>11.94183100714889</v>
       </c>
       <c r="O4">
-        <v>22.260679529988</v>
+        <v>14.83973688309802</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.45685013710231</v>
+        <v>16.16138964085098</v>
       </c>
       <c r="C5">
-        <v>6.858940037595769</v>
+        <v>11.70324723469773</v>
       </c>
       <c r="D5">
-        <v>10.7012713753404</v>
+        <v>6.983978549486391</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.66072179557056</v>
+        <v>21.42152342051622</v>
       </c>
       <c r="G5">
-        <v>3.635227991699058</v>
+        <v>2.082171904642087</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.25975771534744</v>
+        <v>12.49780715987247</v>
       </c>
       <c r="J5">
-        <v>11.13149467258511</v>
+        <v>6.5366130194226</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.9576144698933</v>
+        <v>13.60519350377919</v>
       </c>
       <c r="N5">
-        <v>17.4410736296537</v>
+        <v>11.98018544809017</v>
       </c>
       <c r="O5">
-        <v>22.27529648191869</v>
+        <v>14.78854544710972</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.43523294765226</v>
+        <v>16.10545566426246</v>
       </c>
       <c r="C6">
-        <v>6.839356151149289</v>
+        <v>11.66378574001577</v>
       </c>
       <c r="D6">
-        <v>10.70089926477046</v>
+        <v>6.975161274660384</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.66228875677062</v>
+        <v>21.39958173693378</v>
       </c>
       <c r="G6">
-        <v>3.635320834317437</v>
+        <v>2.082403385166822</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.26416144272277</v>
+        <v>12.50389322951739</v>
       </c>
       <c r="J6">
-        <v>11.13280258680993</v>
+        <v>6.537013460439839</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.95156530678636</v>
+        <v>13.57055139676525</v>
       </c>
       <c r="N6">
-        <v>17.44334853202478</v>
+        <v>11.98660439263105</v>
       </c>
       <c r="O6">
-        <v>22.27780860125097</v>
+        <v>14.78024525378633</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.58454321494165</v>
+        <v>16.48974899075631</v>
       </c>
       <c r="C7">
-        <v>6.974148489609481</v>
+        <v>11.93497714408401</v>
       </c>
       <c r="D7">
-        <v>10.70363095827207</v>
+        <v>7.036417865118493</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.65214742595188</v>
+        <v>21.55320835592826</v>
       </c>
       <c r="G7">
-        <v>3.634682402553777</v>
+        <v>2.080806090434555</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.23398942138519</v>
+        <v>12.46268155512809</v>
       </c>
       <c r="J7">
-        <v>11.1238633837875</v>
+        <v>6.534549467478231</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.99375976586759</v>
+        <v>13.80959782756648</v>
       </c>
       <c r="N7">
-        <v>17.42771518803348</v>
+        <v>11.94234489992006</v>
       </c>
       <c r="O7">
-        <v>22.2608709593887</v>
+        <v>14.83903304952489</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.22382064258246</v>
+        <v>18.08808915415387</v>
       </c>
       <c r="C8">
-        <v>7.54002360998839</v>
+        <v>13.06458587161752</v>
       </c>
       <c r="D8">
-        <v>10.71935289558261</v>
+        <v>7.30758410892411</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.62560479282609</v>
+        <v>22.2632311942366</v>
       </c>
       <c r="G8">
-        <v>3.632013178745095</v>
+        <v>2.073986927777071</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.11062654811917</v>
+        <v>12.30744879864112</v>
       </c>
       <c r="J8">
-        <v>11.08786002606831</v>
+        <v>6.531674470591422</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.18483266697161</v>
+        <v>14.82792341110487</v>
       </c>
       <c r="N8">
-        <v>17.362606324505</v>
+        <v>11.75436186009004</v>
       </c>
       <c r="O8">
-        <v>22.19850936964129</v>
+        <v>15.12785833676497</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.39576486480181</v>
+        <v>20.87520377331246</v>
       </c>
       <c r="C9">
-        <v>8.540573650021331</v>
+        <v>15.03991710298391</v>
       </c>
       <c r="D9">
-        <v>10.76320132135263</v>
+        <v>7.837900684745722</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.63909025749027</v>
+        <v>23.76326604612314</v>
       </c>
       <c r="G9">
-        <v>3.627307318243621</v>
+        <v>2.061397319046033</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.90399574661406</v>
+        <v>12.10965729683704</v>
       </c>
       <c r="J9">
-        <v>11.02963414415571</v>
+        <v>6.556623606585013</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.57474788715921</v>
+        <v>16.68070656978534</v>
       </c>
       <c r="N9">
-        <v>17.24880385492018</v>
+        <v>11.41237523272182</v>
       </c>
       <c r="O9">
-        <v>22.12094791641611</v>
+        <v>15.80210266244042</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.1987992094134</v>
+        <v>22.71455191080062</v>
       </c>
       <c r="C10">
-        <v>9.205924061828483</v>
+        <v>16.3468946493924</v>
       </c>
       <c r="D10">
-        <v>10.80318833486972</v>
+        <v>8.223070192594252</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.68893289139587</v>
+        <v>24.92395435567736</v>
       </c>
       <c r="G10">
-        <v>3.624168703962647</v>
+        <v>2.052582870041526</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.7738170615515</v>
+        <v>12.03999265113475</v>
       </c>
       <c r="J10">
-        <v>10.99440081529994</v>
+        <v>6.595306415859321</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.868369367455</v>
+        <v>18.16720389335968</v>
       </c>
       <c r="N10">
-        <v>17.17359513058876</v>
+        <v>11.17777839739289</v>
       </c>
       <c r="O10">
-        <v>22.09140944890998</v>
+        <v>16.36431188021303</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.5501515765068</v>
+        <v>23.50687821033185</v>
       </c>
       <c r="C11">
-        <v>9.493006063921792</v>
+        <v>16.91066001018287</v>
       </c>
       <c r="D11">
-        <v>10.82302695562068</v>
+        <v>8.39668430891804</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.72024772556085</v>
+        <v>25.46331116640666</v>
       </c>
       <c r="G11">
-        <v>3.622809365775435</v>
+        <v>2.048657515080198</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.71931987698845</v>
+        <v>12.0271335667712</v>
       </c>
       <c r="J11">
-        <v>10.98001048362731</v>
+        <v>6.617692372738031</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.00303685243608</v>
+        <v>18.81246883346365</v>
       </c>
       <c r="N11">
-        <v>17.14119330226017</v>
+        <v>11.07479809207187</v>
       </c>
       <c r="O11">
-        <v>22.08395900547281</v>
+        <v>16.63466982162979</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.68109931072249</v>
+        <v>23.80059532526276</v>
       </c>
       <c r="C12">
-        <v>9.599447566299235</v>
+        <v>17.11976396865068</v>
       </c>
       <c r="D12">
-        <v>10.83077254266322</v>
+        <v>8.462151736435588</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.73334341789369</v>
+        <v>25.66908024947508</v>
       </c>
       <c r="G12">
-        <v>3.622304405662317</v>
+        <v>2.047182346926482</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.69936456297205</v>
+        <v>12.02517632063073</v>
       </c>
       <c r="J12">
-        <v>10.97479668571287</v>
+        <v>6.626888412888765</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.05415083883964</v>
+        <v>19.05186500074743</v>
       </c>
       <c r="N12">
-        <v>17.12918314093406</v>
+        <v>11.03635362991888</v>
       </c>
       <c r="O12">
-        <v>22.0819999461647</v>
+        <v>16.73914654681121</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.65299222696838</v>
+        <v>23.73761807762952</v>
       </c>
       <c r="C13">
-        <v>9.576624835735329</v>
+        <v>17.07492380407749</v>
       </c>
       <c r="D13">
-        <v>10.82909408783668</v>
+        <v>8.448065117976084</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.73046808738226</v>
+        <v>25.62469784425235</v>
       </c>
       <c r="G13">
-        <v>3.622412723140592</v>
+        <v>2.047499563413423</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.70363194139174</v>
+        <v>12.02546504377211</v>
       </c>
       <c r="J13">
-        <v>10.9759090956142</v>
+        <v>6.624875419557359</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.04313789147123</v>
+        <v>19.00052591394123</v>
       </c>
       <c r="N13">
-        <v>17.13175820458282</v>
+        <v>11.0446085296474</v>
       </c>
       <c r="O13">
-        <v>22.08238349946012</v>
+        <v>16.71655235636709</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.56096734689405</v>
+        <v>23.53116876206258</v>
       </c>
       <c r="C14">
-        <v>9.501808708360853</v>
+        <v>16.92795066143192</v>
       </c>
       <c r="D14">
-        <v>10.82365954056822</v>
+        <v>8.402076136276195</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.72130035027147</v>
+        <v>25.4802098784333</v>
       </c>
       <c r="G14">
-        <v>3.622767626440356</v>
+        <v>2.04853593117688</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.7176644662704</v>
+        <v>12.02691299735458</v>
       </c>
       <c r="J14">
-        <v>10.9795768212234</v>
+        <v>6.618434352843057</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.00723988493356</v>
+        <v>18.83226295667464</v>
       </c>
       <c r="N14">
-        <v>17.14020001812498</v>
+        <v>11.07162409021154</v>
       </c>
       <c r="O14">
-        <v>22.08378054561623</v>
+        <v>16.64322315568985</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.5043231356106</v>
+        <v>23.40389159154563</v>
       </c>
       <c r="C15">
-        <v>9.455685289902057</v>
+        <v>16.83735614875278</v>
       </c>
       <c r="D15">
-        <v>10.82036096446129</v>
+        <v>8.373869290761997</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.71584582174886</v>
+        <v>25.39190270009097</v>
       </c>
       <c r="G15">
-        <v>3.622986288691813</v>
+        <v>2.049172178780124</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.72634863340659</v>
+        <v>12.02818528055282</v>
       </c>
       <c r="J15">
-        <v>10.98185408012197</v>
+        <v>6.614583547833732</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.9852655602998</v>
+        <v>18.72855416015955</v>
       </c>
       <c r="N15">
-        <v>17.14540467355898</v>
+        <v>11.08824424853447</v>
       </c>
       <c r="O15">
-        <v>22.08474859979499</v>
+        <v>16.5985800324121</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.17554827591897</v>
+        <v>22.66188353624145</v>
       </c>
       <c r="C16">
-        <v>9.186846287189624</v>
+        <v>16.30943553728584</v>
       </c>
       <c r="D16">
-        <v>10.80192467532832</v>
+        <v>8.211687783310355</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.68705986789979</v>
+        <v>24.88892517677892</v>
       </c>
       <c r="G16">
-        <v>3.624258912776105</v>
+        <v>2.052841027382368</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.7774738165643</v>
+        <v>12.04122934832293</v>
       </c>
       <c r="J16">
-        <v>10.99537421148709</v>
+        <v>6.593942393282029</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.85958723726456</v>
+        <v>18.12433780161286</v>
       </c>
       <c r="N16">
-        <v>17.1757490468618</v>
+        <v>11.18458480370179</v>
       </c>
       <c r="O16">
-        <v>22.09201695204336</v>
+        <v>16.34693711505381</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.97020970757411</v>
+        <v>22.19535844002161</v>
       </c>
       <c r="C17">
-        <v>9.01790695990929</v>
+        <v>15.97771921711503</v>
       </c>
       <c r="D17">
-        <v>10.79103408929396</v>
+        <v>8.111749638814477</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.67161061235363</v>
+        <v>24.58319273421038</v>
       </c>
       <c r="G17">
-        <v>3.625057118928847</v>
+        <v>2.055112768670473</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.81004866007963</v>
+        <v>12.05419893732243</v>
       </c>
       <c r="J17">
-        <v>11.00408780691935</v>
+        <v>6.582527779421687</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.78274063621599</v>
+        <v>17.74478086733046</v>
       </c>
       <c r="N17">
-        <v>17.19482766386559</v>
+        <v>11.24465363031008</v>
       </c>
       <c r="O17">
-        <v>22.09801035832514</v>
+        <v>16.19630241129986</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.85079593913478</v>
+        <v>21.92284203926468</v>
       </c>
       <c r="C18">
-        <v>8.919271408724507</v>
+        <v>15.78402412465122</v>
       </c>
       <c r="D18">
-        <v>10.78492550906788</v>
+        <v>8.054119490967084</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.66353835387682</v>
+        <v>24.40841779158374</v>
       </c>
       <c r="G18">
-        <v>3.625522670147943</v>
+        <v>2.056427411122449</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.82922912473204</v>
+        <v>12.06341875810559</v>
       </c>
       <c r="J18">
-        <v>11.00925376307626</v>
+        <v>6.57641132939156</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.73864617623861</v>
+        <v>17.52318218140808</v>
       </c>
       <c r="N18">
-        <v>17.20597168053744</v>
+        <v>11.27955456011722</v>
       </c>
       <c r="O18">
-        <v>22.10202106182024</v>
+        <v>16.1110364767629</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.81014289898076</v>
+        <v>21.82985221674664</v>
       </c>
       <c r="C19">
-        <v>8.885624281964171</v>
+        <v>15.7179428034091</v>
       </c>
       <c r="D19">
-        <v>10.78288405311615</v>
+        <v>8.034582941932472</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.66094512116352</v>
+        <v>24.34942997484066</v>
       </c>
       <c r="G19">
-        <v>3.625681406076198</v>
+        <v>2.056873925089018</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.83579952642934</v>
+        <v>12.06683655464228</v>
       </c>
       <c r="J19">
-        <v>11.01102933698604</v>
+        <v>6.574416589260442</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.72373590478331</v>
+        <v>17.44758611017911</v>
       </c>
       <c r="N19">
-        <v>17.20977415882178</v>
+        <v>11.29143129337774</v>
       </c>
       <c r="O19">
-        <v>22.10347573993516</v>
+        <v>16.08240311640081</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.99220450438639</v>
+        <v>22.24545334796728</v>
       </c>
       <c r="C20">
-        <v>9.036042805671302</v>
+        <v>16.01333087756877</v>
       </c>
       <c r="D20">
-        <v>10.7921773552519</v>
+        <v>8.122403935518019</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.67317102525972</v>
+        <v>24.6156281073572</v>
       </c>
       <c r="G20">
-        <v>3.624971481931425</v>
+        <v>2.054870116292612</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.80653501264407</v>
+        <v>12.0526346741973</v>
       </c>
       <c r="J20">
-        <v>11.00314427795306</v>
+        <v>6.583696202733079</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.79091043798241</v>
+        <v>17.7855251439526</v>
       </c>
       <c r="N20">
-        <v>17.19277907153802</v>
+        <v>11.23822278589292</v>
       </c>
       <c r="O20">
-        <v>22.09731402277676</v>
+        <v>16.21219541915908</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.5880550202592</v>
+        <v>23.59197890497837</v>
       </c>
       <c r="C21">
-        <v>9.523845825500279</v>
+        <v>16.97123877414492</v>
       </c>
       <c r="D21">
-        <v>10.8252495039171</v>
+        <v>8.4155920546942</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.72395960095061</v>
+        <v>25.522608845244</v>
       </c>
       <c r="G21">
-        <v>3.622663117379957</v>
+        <v>2.048231225853513</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.71352425460513</v>
+        <v>12.02640701913113</v>
       </c>
       <c r="J21">
-        <v>10.97849312943495</v>
+        <v>6.620306494944465</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.0177811020556</v>
+        <v>18.88181972076055</v>
       </c>
       <c r="N21">
-        <v>17.1377134100195</v>
+        <v>11.06367385890868</v>
       </c>
       <c r="O21">
-        <v>22.08334678961247</v>
+        <v>16.6647048055078</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.96519198449345</v>
+        <v>24.43520834869474</v>
       </c>
       <c r="C22">
-        <v>9.829411996220932</v>
+        <v>17.57177078930054</v>
       </c>
       <c r="D22">
-        <v>10.8482209645432</v>
+        <v>8.605579074052807</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.76436227025403</v>
+        <v>26.12423184114972</v>
       </c>
       <c r="G22">
-        <v>3.621211519161816</v>
+        <v>2.04395762741752</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.65671038343471</v>
+        <v>12.02633689271919</v>
       </c>
       <c r="J22">
-        <v>10.96375490924014</v>
+        <v>6.648438370053237</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.16672576822759</v>
+        <v>19.56948191371545</v>
       </c>
       <c r="N22">
-        <v>17.10323827845687</v>
+        <v>10.95282174178109</v>
       </c>
       <c r="O22">
-        <v>22.07924455246704</v>
+        <v>16.97267318138881</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.76505913967604</v>
+        <v>23.98850583407857</v>
       </c>
       <c r="C23">
-        <v>9.667544890203104</v>
+        <v>17.25357424364296</v>
       </c>
       <c r="D23">
-        <v>10.83583785471746</v>
+        <v>8.504342022134475</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.74214100586587</v>
+        <v>25.80235490382014</v>
       </c>
       <c r="G23">
-        <v>3.621981060277748</v>
+        <v>2.046232850496541</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.68666852447528</v>
+        <v>12.02474412232131</v>
       </c>
       <c r="J23">
-        <v>10.9714953607084</v>
+        <v>6.633029022291867</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.08718274363452</v>
+        <v>19.20507934270496</v>
       </c>
       <c r="N23">
-        <v>17.12150005256511</v>
+        <v>11.01168504324022</v>
       </c>
       <c r="O23">
-        <v>22.08097379302091</v>
+        <v>16.80718691451952</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.98226489132836</v>
+        <v>22.22281885381648</v>
       </c>
       <c r="C24">
-        <v>9.027848291165181</v>
+        <v>15.99724015296054</v>
       </c>
       <c r="D24">
-        <v>10.79166000920922</v>
+        <v>8.117587667545143</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.6724630399532</v>
+        <v>24.60096096858437</v>
       </c>
       <c r="G24">
-        <v>3.625010177693784</v>
+        <v>2.054979792618625</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.80812212252249</v>
+        <v>12.05333640030419</v>
       </c>
       <c r="J24">
-        <v>11.00357036024435</v>
+        <v>6.583166571769494</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.78721660071317</v>
+        <v>17.76711520906917</v>
       </c>
       <c r="N24">
-        <v>17.1937046934969</v>
+        <v>11.24112902994513</v>
       </c>
       <c r="O24">
-        <v>22.09762707618034</v>
+        <v>16.20500602889926</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.08838545350363</v>
+        <v>20.15806000075572</v>
       </c>
       <c r="C25">
-        <v>8.281961324599243</v>
+        <v>14.53103733034799</v>
       </c>
       <c r="D25">
-        <v>10.74996149751622</v>
+        <v>7.694980045143862</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.62842253273281</v>
+        <v>23.34667134232988</v>
       </c>
       <c r="G25">
-        <v>3.628524153107349</v>
+        <v>2.064723538170699</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.95610490546211</v>
+        <v>12.15067513213926</v>
       </c>
       <c r="J25">
-        <v>11.04406072692036</v>
+        <v>6.546423949758311</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.46785368604156</v>
+        <v>16.19587155704392</v>
       </c>
       <c r="N25">
-        <v>17.27811092245188</v>
+        <v>11.50200213229113</v>
       </c>
       <c r="O25">
-        <v>22.13712142376376</v>
+        <v>15.60800854223727</v>
       </c>
     </row>
   </sheetData>
